--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -69,7 +69,22 @@
     <t>Le programme à crashé lors de la sauvegarde trois fois. Je refais la planification avec un autre programme</t>
   </si>
   <si>
-    <t>Sur GanttProject cette fois</t>
+    <t>9b11e557a8f607254b2b476a41fe98b5022022df</t>
+  </si>
+  <si>
+    <t>Remplissage de la sandbox sur Scrum</t>
+  </si>
+  <si>
+    <t>https://icescrum.cpnv.ch/p/NEWSWEBSIT/</t>
+  </si>
+  <si>
+    <t>Ajout du canvas de documentation</t>
+  </si>
+  <si>
+    <t>3b50924c0668f0b7c5f34f4eb16db6148d4fd43b</t>
+  </si>
+  <si>
+    <t>Sur GanttProject. Je ne suis pas 100% sûr du resultat. Elle sera révisée au besoin.</t>
   </si>
 </sst>
 </file>
@@ -406,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44683</v>
       </c>
@@ -531,14 +546,46 @@
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44683</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44683</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,33 @@
   </si>
   <si>
     <t>Sur GanttProject. Je ne suis pas 100% sûr du resultat. Elle sera révisée au besoin.</t>
+  </si>
+  <si>
+    <t>Remplissage du fichier de documentation</t>
+  </si>
+  <si>
+    <t>Revue de la sandbox sur IceScrum avec CdP</t>
+  </si>
+  <si>
+    <t>Documentation de l'analyse concurentielle</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Définition de tests dans les story sur IceScrum</t>
+  </si>
+  <si>
+    <t>Préparation du premier rendu</t>
+  </si>
+  <si>
+    <t>39d1f2fc5b7a74535261ae7d8b8e759f4d303ebc</t>
+  </si>
+  <si>
+    <t>Remplissage du fichier de documentation - Cahier des charges et plus</t>
+  </si>
+  <si>
+    <t>J'ai oublié de faire le rendu de la planification initiale le premier soir</t>
   </si>
 </sst>
 </file>
@@ -421,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +488,9 @@
       <c r="A2" s="2">
         <v>44683</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -472,6 +502,9 @@
       <c r="A3" s="2">
         <v>44683</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" s="1">
         <v>0.25</v>
       </c>
@@ -489,6 +522,9 @@
       <c r="A4" s="2">
         <v>44683</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C4" s="1">
         <v>0.25</v>
       </c>
@@ -500,6 +536,9 @@
       <c r="A5" s="2">
         <v>44683</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" s="1">
         <v>0.25</v>
       </c>
@@ -514,6 +553,9 @@
       <c r="A6" s="2">
         <v>44683</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="1">
         <v>0.25</v>
       </c>
@@ -525,6 +567,9 @@
       <c r="A7" s="2">
         <v>44683</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="1">
         <v>2.25</v>
       </c>
@@ -539,6 +584,9 @@
       <c r="A8" s="2">
         <v>44683</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="1">
         <v>1.5</v>
       </c>
@@ -556,6 +604,9 @@
       <c r="A9" s="2">
         <v>44683</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="1">
         <v>0.75</v>
       </c>
@@ -566,9 +617,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44683</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -578,14 +632,129 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>
+  <headerFooter>
+    <oddHeader>&amp;LCPNV</oddHeader>
+    <oddFooter>&amp;LLouis Richard - louis.richard@cpnv.ch&amp;C&amp;P/&amp;N&amp;R&amp;D</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,51 @@
   </si>
   <si>
     <t>J'ai oublié de faire le rendu de la planification initiale le premier soir</t>
+  </si>
+  <si>
+    <t>Model Conceptuel de Donée (MCD)</t>
+  </si>
+  <si>
+    <t>9edae5173994be5b0d1cb6a1197305bcb657c620</t>
+  </si>
+  <si>
+    <t>Revue de la documentation, de la planification et du MCD avec chef de projet</t>
+  </si>
+  <si>
+    <t>Révision du MCD, problème du stockage des images. Modification de la planification détaillée dans le point Historique de la documentation</t>
+  </si>
+  <si>
+    <t>07cf448ff6cb71c152bda1016a0b338bfc1fb162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation : Introduction et stratégie de test </t>
+  </si>
+  <si>
+    <t>Modification de la planification initiale : répartition de l'analyse dans chaque sprint plus adapté à la méthode agile et repartissions de la charge de travail</t>
+  </si>
+  <si>
+    <t>Définition de tâches sur IceScrum</t>
+  </si>
+  <si>
+    <t>Documentation : Introduction, historique et développement du budget</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>Premier design du MLD</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Aide à camarade Bryan Evangelisti</t>
+  </si>
+  <si>
+    <t>d4483afbe21c49cfcf5071c56c0fc4bc242e1f7a</t>
+  </si>
+  <si>
+    <t>Définition des objectifs</t>
   </si>
 </sst>
 </file>
@@ -172,7 +217,33 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -183,6 +254,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:F26"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" name="Type" dataDxfId="6"/>
+    <tableColumn id="3" name="Durée (heures)" dataDxfId="5"/>
+    <tableColumn id="4" name="Description" dataDxfId="4"/>
+    <tableColumn id="5" name="Remarque" dataDxfId="3"/>
+    <tableColumn id="6" name="Commit ID" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,23 +534,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="66.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44683</v>
       </c>
@@ -498,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44683</v>
       </c>
@@ -518,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44683</v>
       </c>
@@ -532,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44683</v>
       </c>
@@ -549,7 +635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44683</v>
       </c>
@@ -563,7 +649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44683</v>
       </c>
@@ -579,8 +665,12 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f>SUM(C:C)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44683</v>
       </c>
@@ -600,7 +690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44683</v>
       </c>
@@ -617,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44683</v>
       </c>
@@ -634,7 +724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44684</v>
       </c>
@@ -648,7 +738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44684</v>
       </c>
@@ -665,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44684</v>
       </c>
@@ -682,7 +772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44684</v>
       </c>
@@ -695,8 +785,11 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44684</v>
       </c>
@@ -713,7 +806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44684</v>
       </c>
@@ -727,7 +820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44684</v>
       </c>
@@ -742,6 +835,135 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44687</v>
       </c>
     </row>
   </sheetData>
@@ -756,5 +978,8 @@
     <oddHeader>&amp;LCPNV</oddHeader>
     <oddFooter>&amp;LLouis Richard - louis.richard@cpnv.ch&amp;C&amp;P/&amp;N&amp;R&amp;D</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -157,6 +157,39 @@
   </si>
   <si>
     <t>Définition des objectifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création des maquettes </t>
+  </si>
+  <si>
+    <t>Home, login, register</t>
+  </si>
+  <si>
+    <t>Révision du MLD</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint review avec chef de projet </t>
+  </si>
+  <si>
+    <t>Plusieurs choses à réviser. A voir dans Documentation/reviews</t>
+  </si>
+  <si>
+    <t>601ce3acc8b6cbc18d49aa7c882488e928093d11</t>
+  </si>
+  <si>
+    <t>Révision de la doc selon review</t>
+  </si>
+  <si>
+    <t>Préparation du second rendu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il reste la stratégie de test a finaliser dans la documentation. Le reste est plutôt bon et je pense être prêt à commencer la mise en place du site la semaine prochaine </t>
+  </si>
+  <si>
+    <t>6369b468d2611907f95278f0fdac075f4a37b030</t>
   </si>
 </sst>
 </file>
@@ -234,13 +267,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -257,15 +290,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:F26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" name="Type" dataDxfId="6"/>
-    <tableColumn id="3" name="Durée (heures)" dataDxfId="5"/>
-    <tableColumn id="4" name="Description" dataDxfId="4"/>
-    <tableColumn id="5" name="Remarque" dataDxfId="3"/>
-    <tableColumn id="6" name="Commit ID" dataDxfId="2"/>
+    <tableColumn id="1" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" name="Durée (heures)" dataDxfId="3"/>
+    <tableColumn id="4" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="6" name="Commit ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -534,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +700,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>18.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -964,6 +997,86 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44687</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -190,6 +190,33 @@
   </si>
   <si>
     <t>6369b468d2611907f95278f0fdac075f4a37b030</t>
+  </si>
+  <si>
+    <t>Révision du MCD</t>
+  </si>
+  <si>
+    <t>b7a8224aafc0a5275e8de50b1984fc9afd59a5ce</t>
+  </si>
+  <si>
+    <t>Comme suggérer dans un email du chef de projet</t>
+  </si>
+  <si>
+    <t>Estimation des story et activation du sprint</t>
+  </si>
+  <si>
+    <t>Selon MCD</t>
+  </si>
+  <si>
+    <t>ab90804b5cba1e50fe3f048a65b95861cc596981</t>
+  </si>
+  <si>
+    <t>Définition de la stratégie de test pour nouvelles stories</t>
+  </si>
+  <si>
+    <t>Modification de la documentation</t>
+  </si>
+  <si>
+    <t>Utilisation des nouveaux MCD et MLD</t>
   </si>
 </sst>
 </file>
@@ -290,8 +317,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F35" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F35"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -567,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +607,7 @@
     <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="66.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -700,7 +727,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>23.5</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1077,6 +1104,91 @@
       </c>
       <c r="E30" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>3b4112fc1adc665920f11a96b2e4e3a99372c40e</t>
+  </si>
+  <si>
+    <t>Revu</t>
+  </si>
+  <si>
+    <t>c90e884f414904d00272d3cbe9c300baa29374c0</t>
+  </si>
+  <si>
+    <t>Continuation de la documentation</t>
   </si>
 </sst>
 </file>
@@ -329,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F38"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -606,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +748,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>26.75</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1221,6 +1230,40 @@
       </c>
       <c r="F36" s="1" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Continuation de la documentation</t>
+  </si>
+  <si>
+    <t>Première version du script de création de la DB</t>
   </si>
 </sst>
 </file>
@@ -338,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F39" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F39"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -615,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +751,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>28.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1264,6 +1267,20 @@
       </c>
       <c r="D38" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44691</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -241,6 +241,24 @@
   </si>
   <si>
     <t>Première version du script de création de la DB</t>
+  </si>
+  <si>
+    <t>Mise en place de la fonction de Register</t>
+  </si>
+  <si>
+    <t>Correction du MLD avec chef de projet</t>
+  </si>
+  <si>
+    <t>Problème d'extraction du script depuis le MLD, il y avait une erreur dans le modèle</t>
+  </si>
+  <si>
+    <t>Tentative de correction du Register</t>
+  </si>
+  <si>
+    <t>pdo::prepare n'existe pas et appelle a une fonction "non définie" alors qu'elle est présente. Possiblement un problème de require ou ma version de PHP</t>
+  </si>
+  <si>
+    <t>Documentation du projet</t>
   </si>
 </sst>
 </file>
@@ -341,8 +359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F39" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F43"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -618,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +769,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>29</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1281,6 +1299,68 @@
       </c>
       <c r="D39" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44691</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44691</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44691</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44691</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF1741F-757E-49A7-BA7A-41A268E86B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -259,12 +270,21 @@
   </si>
   <si>
     <t>Documentation du projet</t>
+  </si>
+  <si>
+    <t>BugFix du bug d'hier</t>
+  </si>
+  <si>
+    <t>prepare : mauvaise définiton des return dans la documentation de la fonction. Fonction non-définie : &lt;?php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -312,6 +332,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -336,7 +359,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -359,15 +382,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F44" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" name="Durée (heures)" dataDxfId="3"/>
-    <tableColumn id="4" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" name="Remarque" dataDxfId="1"/>
-    <tableColumn id="6" name="Commit ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Durée (heures)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Commit ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,16 +658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="66.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -769,7 +792,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>33.75</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1363,11 +1386,28 @@
         <v>79</v>
       </c>
     </row>
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>44692</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF1741F-757E-49A7-BA7A-41A268E86B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -276,15 +275,15 @@
   </si>
   <si>
     <t>prepare : mauvaise définiton des return dans la documentation de la fonction. Fonction non-définie : &lt;?php</t>
+  </si>
+  <si>
+    <t>Vérification de l'email de l'utilisateur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,7 +333,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -359,7 +358,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -382,15 +381,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F44" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F45" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F45"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Durée (heures)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarque" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Commit ID" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" name="Durée (heures)" dataDxfId="3"/>
+    <tableColumn id="4" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="6" name="Commit ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -658,11 +657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +791,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>36.25</v>
+        <v>39.25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1403,11 +1402,25 @@
         <v>81</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44693</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Vérification de l'email de l'utilisateur</t>
+  </si>
+  <si>
+    <t>7abc0e45b4b63950fc36fa59d6ca8f9b21ca75bb</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,6 +1417,9 @@
       </c>
       <c r="D45" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>7abc0e45b4b63950fc36fa59d6ca8f9b21ca75bb</t>
+  </si>
+  <si>
+    <t>réalisation</t>
+  </si>
+  <si>
+    <t>Paufinage de la vérification de l'email, activation de l'utilisateur, email tout bien</t>
   </si>
 </sst>
 </file>
@@ -384,8 +390,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F45" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F46" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F46"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -661,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
@@ -794,7 +800,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>39.25</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1420,6 +1426,20 @@
       </c>
       <c r="F45" s="1" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44693</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>Paufinage de la vérification de l'email, activation de l'utilisateur, email tout bien</t>
+  </si>
+  <si>
+    <t>Commencement de la fonction de login</t>
+  </si>
+  <si>
+    <t>Finition de la fonction de login</t>
   </si>
 </sst>
 </file>
@@ -390,8 +396,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F46" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F48" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F48"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -667,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +806,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>41.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1440,6 +1446,34 @@
       </c>
       <c r="D46" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>44693</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>44694</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>Finition de la fonction de login</t>
+  </si>
+  <si>
+    <t>ef2a1e705c3c0f541e51bab08135dfa7bff69bd6</t>
+  </si>
+  <si>
+    <t>c25f4ed08a8cc4a94f4295f148e7d4cfb7c2b781</t>
   </si>
 </sst>
 </file>
@@ -676,7 +682,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,6 +1467,9 @@
       <c r="D47" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -1474,6 +1483,9 @@
       </c>
       <c r="D48" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -299,6 +299,15 @@
   </si>
   <si>
     <t>c25f4ed08a8cc4a94f4295f148e7d4cfb7c2b781</t>
+  </si>
+  <si>
+    <t>Gestions des erreurs/exceptions</t>
+  </si>
+  <si>
+    <t>Affichage du message d'erreur a l'utilisateur</t>
+  </si>
+  <si>
+    <t>76e90026b3f5ee849f3a2f6bb866614cdf21086e</t>
   </si>
 </sst>
 </file>
@@ -343,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -355,6 +364,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -402,8 +414,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F48" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F49" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F49"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -679,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +824,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>43</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1486,6 +1498,26 @@
       </c>
       <c r="F48" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44694</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>76e90026b3f5ee849f3a2f6bb866614cdf21086e</t>
+  </si>
+  <si>
+    <t>Correction des bugs présents afin de passer les tests d'acceptations</t>
   </si>
 </sst>
 </file>
@@ -414,8 +417,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F49" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F50" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F50"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +827,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>43.75</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1518,6 +1521,20 @@
       </c>
       <c r="F49" s="5" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>44694</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Correction des bugs présents afin de passer les tests d'acceptations</t>
+  </si>
+  <si>
+    <t>Quelques trucs a réviser. Voir dans documentation/review</t>
   </si>
 </sst>
 </file>
@@ -417,8 +420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F50" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F51" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F51"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -694,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +830,7 @@
       </c>
       <c r="H7">
         <f>SUM(C:C)</f>
-        <v>44.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1535,6 +1538,23 @@
       </c>
       <c r="D50" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>44694</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -314,6 +314,15 @@
   </si>
   <si>
     <t>Quelques trucs a réviser. Voir dans documentation/review</t>
+  </si>
+  <si>
+    <t>Revue des commentaires, définitions de fonctions, etc</t>
+  </si>
+  <si>
+    <t>Reprise de la documentation du projet</t>
+  </si>
+  <si>
+    <t>Pas beaucoup de documentation cette semaine</t>
   </si>
 </sst>
 </file>
@@ -420,8 +429,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F51" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F53"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -697,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +722,7 @@
     <col min="6" max="6" width="43.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44683</v>
       </c>
@@ -747,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44683</v>
       </c>
@@ -767,7 +776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44683</v>
       </c>
@@ -781,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44683</v>
       </c>
@@ -798,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44683</v>
       </c>
@@ -812,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44683</v>
       </c>
@@ -828,12 +837,8 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7">
-        <f>SUM(C:C)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44683</v>
       </c>
@@ -853,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44683</v>
       </c>
@@ -870,7 +875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44683</v>
       </c>
@@ -887,7 +892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44684</v>
       </c>
@@ -901,7 +906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44684</v>
       </c>
@@ -918,7 +923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44684</v>
       </c>
@@ -935,7 +940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44684</v>
       </c>
@@ -952,7 +957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44684</v>
       </c>
@@ -969,7 +974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44684</v>
       </c>
@@ -1555,6 +1560,37 @@
       </c>
       <c r="E51" s="1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>44694</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>44694</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -323,6 +323,36 @@
   </si>
   <si>
     <t>Pas beaucoup de documentation cette semaine</t>
+  </si>
+  <si>
+    <t>Sprint retro</t>
+  </si>
+  <si>
+    <t>ajout de tâches dans le scrum, définitions de tests</t>
+  </si>
+  <si>
+    <t>648f0de37aa2386fc4ae2455ef79559372560b9b</t>
+  </si>
+  <si>
+    <t>1f664c10de6556ca5e4d14a3e5c612d552ac1ba2</t>
+  </si>
+  <si>
+    <t>be538551470e444abf2b2d3ed25d7d6d762b2ee1</t>
+  </si>
+  <si>
+    <t>b309fe8dd426613962ad859ff269a4a711c37c04</t>
+  </si>
+  <si>
+    <t>Création des maquettes pour ce sprint</t>
+  </si>
+  <si>
+    <t>65f4ed811c4dc8076e48ec6f7af41212b192fd81</t>
+  </si>
+  <si>
+    <t>analyse</t>
+  </si>
+  <si>
+    <t>documentation</t>
   </si>
 </sst>
 </file>
@@ -429,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F57" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F57"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -706,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,6 +1034,9 @@
       <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1213,6 +1246,9 @@
       <c r="E30" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -1428,6 +1464,9 @@
       <c r="D43" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="F43" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -1591,6 +1630,71 @@
       </c>
       <c r="E53" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>44697</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>44697</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>44697</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>44697</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE700A88-D128-40F4-BB62-E6D2F22B7051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
@@ -14,22 +15,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -353,12 +344,39 @@
   </si>
   <si>
     <t>documentation</t>
+  </si>
+  <si>
+    <t>Création du formulaire d'ajout d'articles</t>
+  </si>
+  <si>
+    <t>Récupération des catégories dans la base de donnée</t>
+  </si>
+  <si>
+    <t>Ajout d'articles dans la base de donnée</t>
+  </si>
+  <si>
+    <t>Ajout d'image dans la base de donnée</t>
+  </si>
+  <si>
+    <t>Doit encore modifier la base de donnée et insérer un autreur</t>
+  </si>
+  <si>
+    <t>0057e8865b5049d5d6bdcae276b3df47b63d9038</t>
+  </si>
+  <si>
+    <t>Bugfix du choix de l'auteur</t>
+  </si>
+  <si>
+    <t>Le formulaire d'ajout d'article n'aime pas les apostrophes ou autres caractères qui ne sont pas des chiffres et des lettres. Je ne fais pour l'instant aucun check de donnée</t>
+  </si>
+  <si>
+    <t>Journée effectuée en Home Office</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +454,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -459,15 +477,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F57" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F63" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" name="Durée (heures)" dataDxfId="3"/>
-    <tableColumn id="4" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" name="Remarque" dataDxfId="1"/>
-    <tableColumn id="6" name="Commit ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Durée (heures)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Commit ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,11 +753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,11 +1715,98 @@
         <v>107</v>
       </c>
     </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>44698</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>44698</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>44698</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>44698</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>44698</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>44698</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE700A88-D128-40F4-BB62-E6D2F22B7051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -371,12 +370,15 @@
   </si>
   <si>
     <t>Journée effectuée en Home Office</t>
+  </si>
+  <si>
+    <t>Protection contre injections SQL dans l'ajout d'article et gestion d'Exceptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,7 +456,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -477,15 +479,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F63" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Durée (heures)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarque" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Commit ID" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" name="Durée (heures)" dataDxfId="3"/>
+    <tableColumn id="4" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="6" name="Commit ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -753,11 +755,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,16 +1799,30 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>44698</v>
+        <v>44700</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>44700</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>Protection contre injections SQL dans l'ajout d'article et gestion d'Exceptions</t>
+  </si>
+  <si>
+    <t>Création de la page d'affichage pour un article</t>
+  </si>
+  <si>
+    <t>Accessible (pour le moment) que depuis le carousel de la home page</t>
   </si>
 </sst>
 </file>
@@ -759,7 +765,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,9 +1819,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>44700</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Accessible (pour le moment) que depuis le carousel de la home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage des articles sur la page d'acceuil </t>
   </si>
 </sst>
 </file>
@@ -485,8 +488,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F65"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -762,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,6 +1837,20 @@
       </c>
       <c r="E64" s="1" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>44700</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="128">
   <si>
     <t>Date</t>
   </si>
@@ -382,6 +382,27 @@
   </si>
   <si>
     <t xml:space="preserve">Affichage des articles sur la page d'acceuil </t>
+  </si>
+  <si>
+    <t>Correction de quelques bugs et préparation de la visite du second expert</t>
+  </si>
+  <si>
+    <t>Visite</t>
+  </si>
+  <si>
+    <t>Visite du second expert</t>
+  </si>
+  <si>
+    <t>Définition des tests effectués et écriture de plus de tests</t>
+  </si>
+  <si>
+    <t>Journal de travail pas assez précis. Bien faire attention a tout noter. Documentation en retard. Partie réalisation pas encore entamée. En retard sur le code. Il ne reste que 4 jours de travail pour implémenter les fonctionnalités manquantes et mettre le site en ligne. L'expert se montre inquiet</t>
+  </si>
+  <si>
+    <t>Pareil que la visite de l'expert.</t>
+  </si>
+  <si>
+    <t>Bugfix - Tests de la story "ajout d'articles"</t>
   </si>
 </sst>
 </file>
@@ -488,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F70" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F70"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -765,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1860,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>44700</v>
       </c>
@@ -1851,6 +1872,79 @@
       </c>
       <c r="D65" s="1" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>44701</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>44701</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>44701</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>44701</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>44701</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1A383F-96AC-4683-91F9-D4BAE65182E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -403,12 +404,18 @@
   </si>
   <si>
     <t>Bugfix - Tests de la story "ajout d'articles"</t>
+  </si>
+  <si>
+    <t>Fonction de like et dislike</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -462,6 +469,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,7 +496,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -509,15 +519,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F70" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F71" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" name="Durée (heures)" dataDxfId="3"/>
-    <tableColumn id="4" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" name="Remarque" dataDxfId="1"/>
-    <tableColumn id="6" name="Commit ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Durée (heures)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Commit ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -785,11 +795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,15 +1953,32 @@
       <c r="B70" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>44703</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>Bugfix - Tests de la story "ajout d'articles"</t>
+  </si>
+  <si>
+    <t>Documentation des tests effectués</t>
   </si>
 </sst>
 </file>
@@ -509,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F70" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F71" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F71"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -786,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,8 +1946,25 @@
       <c r="B70" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C70" s="1">
+        <v>0.75</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>44701</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>Documentation des tests effectués</t>
+  </si>
+  <si>
+    <t>Fonction like/dislike</t>
+  </si>
+  <si>
+    <t>Documentation de la fonction like/dislike</t>
   </si>
 </sst>
 </file>
@@ -512,8 +518,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F71" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F73" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F73"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -789,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,6 +1971,34 @@
       </c>
       <c r="D71" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>44703</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
   <si>
     <t>Date</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>Documentation de la fonction like/dislike</t>
+  </si>
+  <si>
+    <t>Création de la page d'ajout de catégorie</t>
+  </si>
+  <si>
+    <t>2d65a63aba7ac0d9a4fba409780942050f9aaaea</t>
   </si>
 </sst>
 </file>
@@ -518,8 +524,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F73" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F74" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F74"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -795,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>44700</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>44701</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>44701</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>44701</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>44701</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44701</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>44701</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>44703</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>44704</v>
       </c>
@@ -1999,6 +2005,23 @@
       </c>
       <c r="D73" s="1" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>2d65a63aba7ac0d9a4fba409780942050f9aaaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppression de catégories </t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F74" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F75" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F75"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -801,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,6 +2025,20 @@
       </c>
       <c r="F74" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="136">
   <si>
     <t>Date</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t xml:space="preserve">Suppression de catégories </t>
+  </si>
+  <si>
+    <t>Gestion des erreurs</t>
+  </si>
+  <si>
+    <t>Documentation de la nouvelle feature</t>
   </si>
 </sst>
 </file>
@@ -527,8 +533,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F75" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F77" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F77"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -804,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,6 +2045,34 @@
       </c>
       <c r="D75" s="1" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
   <si>
     <t>Date</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>Documentation de la nouvelle feature</t>
+  </si>
+  <si>
+    <t>Maquettes des fonctionnalités a venir</t>
   </si>
 </sst>
 </file>
@@ -533,8 +536,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F77" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F78" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F78"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -810,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,6 +2076,20 @@
       </c>
       <c r="D77" s="1" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>Maquettes des fonctionnalités a venir</t>
+  </si>
+  <si>
+    <t>Page de gestion des auteurs et ajout d'un auteur</t>
   </si>
 </sst>
 </file>
@@ -536,8 +539,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F78" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F79" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F79"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -813,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,6 +2093,20 @@
       </c>
       <c r="D78" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Page de gestion des auteurs et ajout d'un auteur</t>
+  </si>
+  <si>
+    <t>Suppression d'auteur</t>
   </si>
 </sst>
 </file>
@@ -539,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F79" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F81" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F81"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -816,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,6 +2110,34 @@
       </c>
       <c r="D79" s="1" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Suppression d'auteur</t>
+  </si>
+  <si>
+    <t>Revue des commentaires</t>
   </si>
 </sst>
 </file>
@@ -542,8 +545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F81" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F82" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F82"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -819,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,6 +2141,20 @@
       </c>
       <c r="D81" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="141">
   <si>
     <t>Date</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>Revue des commentaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation -&gt; Réalisation </t>
   </si>
 </sst>
 </file>
@@ -545,8 +548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F82" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F83" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F83"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -822,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,6 +2158,20 @@
       </c>
       <c r="D82" s="1" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t xml:space="preserve">Documentation -&gt; Réalisation </t>
+  </si>
+  <si>
+    <t>Préparation du serveur distant pour le site</t>
   </si>
 </sst>
 </file>
@@ -548,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F83" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F84" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F84"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -825,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,6 +2175,20 @@
       </c>
       <c r="D83" s="1" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>44704</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="145">
   <si>
     <t>Date</t>
   </si>
@@ -445,6 +445,15 @@
   </si>
   <si>
     <t>Préparation du serveur distant pour le site</t>
+  </si>
+  <si>
+    <t>Tentative d'ajout de commentaires</t>
+  </si>
+  <si>
+    <t>Ne fonctionne pas du à une erreur FK SQL</t>
+  </si>
+  <si>
+    <t>Documentation des tests des commentaires</t>
   </si>
 </sst>
 </file>
@@ -551,8 +560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F84" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F87" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F87"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -828,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2144,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44704</v>
       </c>
@@ -2149,7 +2158,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44704</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>44704</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44704</v>
       </c>
@@ -2190,6 +2199,40 @@
       <c r="D84" s="1" t="s">
         <v>141</v>
       </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>44705</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>44705</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="148">
   <si>
     <t>Date</t>
   </si>
@@ -454,6 +454,15 @@
   </si>
   <si>
     <t>Documentation des tests des commentaires</t>
+  </si>
+  <si>
+    <t>Visite chef de projet -&gt; Deboggage de l'ajout de commentaires</t>
+  </si>
+  <si>
+    <t>Récupération des commentaires pour un article</t>
+  </si>
+  <si>
+    <t>Édition de la doc selon modifications requises pour l'ajout de commentaires</t>
   </si>
 </sst>
 </file>
@@ -560,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F87" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F89" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F89"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -837,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2241,46 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="A87" s="4">
+        <v>44705</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>44705</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>44705</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
@@ -463,6 +463,15 @@
   </si>
   <si>
     <t>Édition de la doc selon modifications requises pour l'ajout de commentaires</t>
+  </si>
+  <si>
+    <t>Revue de l'ortographe sur le site et la doc</t>
+  </si>
+  <si>
+    <t>Recherche d'articles dans une seule catégorie</t>
+  </si>
+  <si>
+    <t>Documentation du travail de cet après-midi</t>
   </si>
 </sst>
 </file>
@@ -569,8 +578,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F89" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F92" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F92"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -846,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,6 +2289,48 @@
       </c>
       <c r="D89" s="1" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>44705</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>44705</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>44705</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DDB12F-E416-4583-842E-E0D5645A3527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="153">
   <si>
     <t>Date</t>
   </si>
@@ -472,12 +473,21 @@
   </si>
   <si>
     <t>Documentation du travail de cet après-midi</t>
+  </si>
+  <si>
+    <t>Home page avec tous les articles. Pas parfait mais fonctionnel</t>
+  </si>
+  <si>
+    <t>Travail a la maison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -516,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -531,6 +541,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -555,7 +568,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -578,15 +591,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F92" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F93" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" name="Durée (heures)" dataDxfId="3"/>
-    <tableColumn id="4" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" name="Remarque" dataDxfId="1"/>
-    <tableColumn id="6" name="Commit ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Durée (heures)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Commit ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -854,11 +867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,11 +2346,28 @@
         <v>150</v>
       </c>
     </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>44709</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DDB12F-E416-4583-842E-E0D5645A3527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="156">
   <si>
     <t>Date</t>
   </si>
@@ -479,15 +478,21 @@
   </si>
   <si>
     <t>Travail a la maison</t>
+  </si>
+  <si>
+    <t>Corrections de bugs vus que pendant la mise en service</t>
+  </si>
+  <si>
+    <t>Constatations de nouveaux bugs et documentation de ses derniers</t>
+  </si>
+  <si>
+    <t>Documentation de la mise en service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,7 +548,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,7 +573,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -591,15 +596,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F93" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F96" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F96"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Durée (heures)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarque" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Commit ID" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" name="Durée (heures)" dataDxfId="3"/>
+    <tableColumn id="4" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="6" name="Commit ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -867,11 +872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2180,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44704</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44704</v>
       </c>
@@ -2203,7 +2208,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>44704</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44704</v>
       </c>
@@ -2231,7 +2236,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>44705</v>
       </c>
@@ -2248,7 +2253,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>44705</v>
       </c>
@@ -2262,7 +2267,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>44705</v>
       </c>
@@ -2276,7 +2281,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>44705</v>
       </c>
@@ -2290,7 +2295,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>44705</v>
       </c>
@@ -2304,7 +2309,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>44705</v>
       </c>
@@ -2318,7 +2323,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44705</v>
       </c>
@@ -2332,7 +2337,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44705</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>44709</v>
       </c>
@@ -2363,11 +2368,57 @@
         <v>152</v>
       </c>
     </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>44711</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>44711</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>44711</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H96">
+        <f>SUM(C:C)</f>
+        <v>81.100000000000009</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AE81B8-7DEB-4007-A52D-85140897ABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -487,12 +498,39 @@
   </si>
   <si>
     <t>Documentation de la mise en service</t>
+  </si>
+  <si>
+    <t>Revue de la documentation</t>
+  </si>
+  <si>
+    <t>Documentation des erreurs restantes</t>
+  </si>
+  <si>
+    <t>Beaucoup d'erreur. Recherche sur comment les résoudres</t>
+  </si>
+  <si>
+    <t>Spellcheck rapide de la documentation</t>
+  </si>
+  <si>
+    <t>Documentation de la conclusion</t>
+  </si>
+  <si>
+    <t>Suite possible au projet, réparation de la mise en page</t>
+  </si>
+  <si>
+    <t>Documentation - Guide de mise en service</t>
+  </si>
+  <si>
+    <t>Revue de la documentation une dernière fois ce soir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -549,6 +587,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,7 +614,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -596,15 +637,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F96" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" name="Durée (heures)" dataDxfId="3"/>
-    <tableColumn id="4" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" name="Remarque" dataDxfId="1"/>
-    <tableColumn id="6" name="Commit ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Durée (heures)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Commit ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -872,11 +913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +951,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>44683</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -924,7 +965,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>44683</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -944,7 +985,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>44683</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -958,7 +999,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>44683</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -975,7 +1016,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>44683</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -989,7 +1030,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>44683</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1006,7 +1047,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>44683</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1026,7 +1067,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>44683</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1042,8 +1083,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>44683</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1060,7 +1101,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>44684</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1074,7 +1115,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <v>44684</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1090,8 +1131,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>44684</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1108,7 +1149,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="6">
         <v>44684</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1124,8 +1165,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>44684</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1142,7 +1183,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>44684</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1156,7 +1197,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="6">
         <v>44684</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1176,7 +1217,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="6">
         <v>44686</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1193,7 +1234,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="6">
         <v>44686</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1212,8 +1253,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>44686</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1227,7 +1268,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="6">
         <v>44686</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1241,7 +1282,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="6">
         <v>44686</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1255,7 +1296,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="6">
         <v>44686</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1272,7 +1313,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="6">
         <v>44686</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1286,7 +1327,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="6">
         <v>44686</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1300,7 +1341,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="6">
         <v>44687</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1317,7 +1358,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="6">
         <v>44687</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1331,7 +1372,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="6">
         <v>44687</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1351,7 +1392,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="6">
         <v>44687</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1368,7 +1409,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="6">
         <v>44687</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1387,8 +1428,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>44690</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1408,7 +1449,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="6">
         <v>44690</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1422,7 +1463,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="6">
         <v>44690</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1441,8 +1482,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>44690</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1456,7 +1497,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="6">
         <v>44690</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1473,7 +1514,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="6">
         <v>44690</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1493,7 +1534,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="6">
         <v>44690</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1513,7 +1554,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="6">
         <v>44690</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1527,7 +1568,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="6">
         <v>44691</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1541,7 +1582,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="6">
         <v>44691</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2411,14 +2452,107 @@
       </c>
       <c r="H96">
         <f>SUM(C:C)</f>
-        <v>81.100000000000009</v>
+        <v>84.850000000000009</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>44711</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>44711</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>44711</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>44711</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>44712</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>44712</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AE81B8-7DEB-4007-A52D-85140897ABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="JdT-TPI_LRD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -522,15 +521,15 @@
   </si>
   <si>
     <t>Revue de la documentation une dernière fois ce soir</t>
+  </si>
+  <si>
+    <t>Revue de la documentation, rédaction du résumé</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,7 +588,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,7 +613,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -637,15 +636,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F103" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F103"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Durée (heures)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarque" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Commit ID" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" name="Durée (heures)" dataDxfId="3"/>
+    <tableColumn id="4" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" name="Remarque" dataDxfId="1"/>
+    <tableColumn id="6" name="Commit ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -913,11 +912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,7 +2220,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44704</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44704</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>44704</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44704</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>44705</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>44705</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>44705</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>44705</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>44705</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>44705</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44705</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44705</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>44709</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>44711</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>44711</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>44711</v>
       </c>
@@ -2449,10 +2448,6 @@
       </c>
       <c r="D96" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="H96">
-        <f>SUM(C:C)</f>
-        <v>84.850000000000009</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,11 +2543,25 @@
         <v>163</v>
       </c>
     </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>44712</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId4"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="169">
   <si>
     <t>Date</t>
   </si>
@@ -88,24 +88,15 @@
     <t>https://icescrum.cpnv.ch/p/NEWSWEBSIT/</t>
   </si>
   <si>
-    <t>Ajout du canvas de documentation</t>
-  </si>
-  <si>
     <t>3b50924c0668f0b7c5f34f4eb16db6148d4fd43b</t>
   </si>
   <si>
-    <t>Sur GanttProject. Je ne suis pas 100% sûr du resultat. Elle sera révisée au besoin.</t>
-  </si>
-  <si>
     <t>Remplissage du fichier de documentation</t>
   </si>
   <si>
     <t>Revue de la sandbox sur IceScrum avec CdP</t>
   </si>
   <si>
-    <t>Documentation de l'analyse concurentielle</t>
-  </si>
-  <si>
     <t>Analyse</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>J'ai oublié de faire le rendu de la planification initiale le premier soir</t>
   </si>
   <si>
-    <t>Model Conceptuel de Donée (MCD)</t>
-  </si>
-  <si>
     <t>9edae5173994be5b0d1cb6a1197305bcb657c620</t>
   </si>
   <si>
@@ -196,9 +184,6 @@
     <t>Préparation du second rendu</t>
   </si>
   <si>
-    <t xml:space="preserve">Il reste la stratégie de test a finaliser dans la documentation. Le reste est plutôt bon et je pense être prêt à commencer la mise en place du site la semaine prochaine </t>
-  </si>
-  <si>
     <t>6369b468d2611907f95278f0fdac075f4a37b030</t>
   </si>
   <si>
@@ -274,9 +259,6 @@
     <t>BugFix du bug d'hier</t>
   </si>
   <si>
-    <t>prepare : mauvaise définiton des return dans la documentation de la fonction. Fonction non-définie : &lt;?php</t>
-  </si>
-  <si>
     <t>Vérification de l'email de l'utilisateur</t>
   </si>
   <si>
@@ -286,9 +268,6 @@
     <t>réalisation</t>
   </si>
   <si>
-    <t>Paufinage de la vérification de l'email, activation de l'utilisateur, email tout bien</t>
-  </si>
-  <si>
     <t>Commencement de la fonction de login</t>
   </si>
   <si>
@@ -313,12 +292,6 @@
     <t>Correction des bugs présents afin de passer les tests d'acceptations</t>
   </si>
   <si>
-    <t>Quelques trucs a réviser. Voir dans documentation/review</t>
-  </si>
-  <si>
-    <t>Revue des commentaires, définitions de fonctions, etc</t>
-  </si>
-  <si>
     <t>Reprise de la documentation du projet</t>
   </si>
   <si>
@@ -367,9 +340,6 @@
     <t>Ajout d'image dans la base de donnée</t>
   </si>
   <si>
-    <t>Doit encore modifier la base de donnée et insérer un autreur</t>
-  </si>
-  <si>
     <t>0057e8865b5049d5d6bdcae276b3df47b63d9038</t>
   </si>
   <si>
@@ -388,12 +358,6 @@
     <t>Création de la page d'affichage pour un article</t>
   </si>
   <si>
-    <t>Accessible (pour le moment) que depuis le carousel de la home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage des articles sur la page d'acceuil </t>
-  </si>
-  <si>
     <t>Correction de quelques bugs et préparation de la visite du second expert</t>
   </si>
   <si>
@@ -406,9 +370,6 @@
     <t>Définition des tests effectués et écriture de plus de tests</t>
   </si>
   <si>
-    <t>Journal de travail pas assez précis. Bien faire attention a tout noter. Documentation en retard. Partie réalisation pas encore entamée. En retard sur le code. Il ne reste que 4 jours de travail pour implémenter les fonctionnalités manquantes et mettre le site en ligne. L'expert se montre inquiet</t>
-  </si>
-  <si>
     <t>Pareil que la visite de l'expert.</t>
   </si>
   <si>
@@ -439,9 +400,6 @@
     <t>Documentation de la nouvelle feature</t>
   </si>
   <si>
-    <t>Maquettes des fonctionnalités a venir</t>
-  </si>
-  <si>
     <t>Page de gestion des auteurs et ajout d'un auteur</t>
   </si>
   <si>
@@ -460,9 +418,6 @@
     <t>Tentative d'ajout de commentaires</t>
   </si>
   <si>
-    <t>Ne fonctionne pas du à une erreur FK SQL</t>
-  </si>
-  <si>
     <t>Documentation des tests des commentaires</t>
   </si>
   <si>
@@ -475,9 +430,6 @@
     <t>Édition de la doc selon modifications requises pour l'ajout de commentaires</t>
   </si>
   <si>
-    <t>Revue de l'ortographe sur le site et la doc</t>
-  </si>
-  <si>
     <t>Recherche d'articles dans une seule catégorie</t>
   </si>
   <si>
@@ -487,9 +439,6 @@
     <t>Home page avec tous les articles. Pas parfait mais fonctionnel</t>
   </si>
   <si>
-    <t>Travail a la maison</t>
-  </si>
-  <si>
     <t>Corrections de bugs vus que pendant la mise en service</t>
   </si>
   <si>
@@ -505,9 +454,6 @@
     <t>Documentation des erreurs restantes</t>
   </si>
   <si>
-    <t>Beaucoup d'erreur. Recherche sur comment les résoudres</t>
-  </si>
-  <si>
     <t>Spellcheck rapide de la documentation</t>
   </si>
   <si>
@@ -524,13 +470,79 @@
   </si>
   <si>
     <t>Revue de la documentation, rédaction du résumé</t>
+  </si>
+  <si>
+    <t>Correction du bug d'affichage des catégories</t>
+  </si>
+  <si>
+    <t>Peaufinage de l'affichage du site et correction de bugs d'affichage d'articles</t>
+  </si>
+  <si>
+    <t>Relecture de la documentation et correction selon derniers bugfix</t>
+  </si>
+  <si>
+    <t>Sur GanttProject. Je ne suis pas 100% sûr du résultat. Elle sera révisée au besoin.</t>
+  </si>
+  <si>
+    <t>Ajout du canevas de documentation</t>
+  </si>
+  <si>
+    <t>Documentation de l'analyse concurrentielle</t>
+  </si>
+  <si>
+    <t>Model Conceptuel de Données (MCD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il reste la stratégie de test à finaliser dans la documentation. Le reste est plutôt bon et je pense être prêt à commencer la mise en place du site la semaine prochaine </t>
+  </si>
+  <si>
+    <t>prepare : mauvaise définition des return dans la documentation de la fonction. Fonction non-définie : &lt;?php</t>
+  </si>
+  <si>
+    <t>Peaufinage de la vérification de l'email, activation de l'utilisateur, email tout bien</t>
+  </si>
+  <si>
+    <t>Quelques trucs à réviser. Voir dans documentation/review</t>
+  </si>
+  <si>
+    <t>Revue des commentaires, définitions de fonctions, etc.</t>
+  </si>
+  <si>
+    <t>Doit encore modifier la base de donnée et insérer un auteur</t>
+  </si>
+  <si>
+    <t>Accessible (pour le moment) que depuis le carrousel de la home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage des articles sur la page d'accueil </t>
+  </si>
+  <si>
+    <t>Journal de travail pas assez précis. Bien faire attention à tout noter. Documentation en retard. Partie réalisation pas encore entamée. En retard sur le code. Il ne reste que 4 jours de travail pour implémenter les fonctionnalités manquantes et mettre le site en ligne. L'expert se montre inquiet</t>
+  </si>
+  <si>
+    <t>Maquettes des fonctionnalités à venir</t>
+  </si>
+  <si>
+    <t>Ne fonctionne pas dû à une erreur FK SQL</t>
+  </si>
+  <si>
+    <t>Revue de l'orthographe sur le site et la doc</t>
+  </si>
+  <si>
+    <t>Travail à la maison</t>
+  </si>
+  <si>
+    <t>Beaucoup d'erreur. Recherche sur comment les résoudre</t>
+  </si>
+  <si>
+    <t>Préparation à l'impression des documents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,13 +558,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -568,18 +598,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -588,8 +609,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,8 +684,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F103" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F107" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F107"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Type" dataDxfId="4"/>
@@ -913,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,33 +998,34 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>44683</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>44683</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10">
         <v>0.25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -984,1577 +1033,1700 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>44683</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6">
         <v>0.25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>44683</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10">
         <v>0.25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="12"/>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>44683</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="8">
         <v>44683</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10">
         <v>2.25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>44683</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6">
         <v>1.5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
+      <c r="E8" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
         <v>44683</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44683</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>44684</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44684</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>44684</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1">
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44684</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
         <v>0.75</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>44683</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>44684</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>44684</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>44684</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44686</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>44686</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44686</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>44686</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44686</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>44686</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44686</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>44686</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44687</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>44687</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44687</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>44687</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44687</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>44690</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>44690</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>44690</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44690</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>44684</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="D34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>44690</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>44690</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>44690</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>44690</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="6">
         <v>0.5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>44684</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="D38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>44691</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>44691</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>44691</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>44691</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>44691</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="10">
         <v>1.5</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>44684</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>44684</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>44684</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>44684</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>44686</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>44686</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>44686</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>44686</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>44686</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>44686</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>44686</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>44686</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>44687</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>44687</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>44687</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>44687</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>44687</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>44690</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>44690</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>44690</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>44690</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>44690</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>44690</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>44690</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>44690</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>44691</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>44691</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="D43" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>44691</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>44691</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>44691</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44692</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="B44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="6">
         <v>2.5</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>81</v>
+      <c r="D44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="8">
         <v>44693</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="B45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="10">
         <v>3</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="D45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="12"/>
       <c r="F45" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44693</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="B46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="6">
         <v>2.25</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="D46" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="8">
         <v>44693</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="B47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="10">
         <v>0.75</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="D47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="12"/>
       <c r="F47" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44694</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="B48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="6">
         <v>0.75</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="D48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="8">
         <v>44694</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="B49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="10">
         <v>0.75</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>92</v>
+      <c r="D49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>44694</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="B50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="6">
         <v>0.75</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="D50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="8">
         <v>44694</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="B51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="10">
         <v>0.5</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>94</v>
+      <c r="D51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>44694</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="6">
         <v>0.75</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="D52" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="8">
         <v>44694</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="B53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="10">
         <v>0.75</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>97</v>
+      <c r="D53" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>44697</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1">
+      <c r="B54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="6">
         <v>1</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>98</v>
+      <c r="D54" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="8">
         <v>44697</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="1">
+      <c r="B55" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="10">
         <v>0.5</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="D55" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>44697</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="B56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="6">
         <v>2.25</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="D56" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="7"/>
       <c r="F56" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="8">
         <v>44697</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="1">
+      <c r="B57" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="10">
         <v>1.5</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="D57" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>44698</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="1">
+      <c r="B58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="6">
         <v>1</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>116</v>
+      <c r="D58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="8">
         <v>44698</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="1">
+      <c r="B59" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="10">
         <v>0.5</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="D59" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>44698</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="B60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="6">
         <v>1</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="D60" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="8">
         <v>44698</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="1">
+      <c r="B61" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="10">
         <v>2</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>113</v>
+      <c r="D61" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>44698</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="1">
+      <c r="B62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="6">
         <v>0.5</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>115</v>
+      <c r="D62" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="8">
         <v>44700</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="1">
+      <c r="B63" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="10">
         <v>2</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="D63" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>44700</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="1">
+      <c r="B64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="6">
         <v>2.5</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>119</v>
+      <c r="D64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="8">
         <v>44700</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="1">
+      <c r="B65" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="10">
         <v>1</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="D65" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>44701</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="1">
+      <c r="B66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="6">
         <v>0.75</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="D66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="8">
         <v>44701</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="1">
+      <c r="B67" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="10">
         <v>0.5</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>125</v>
+      <c r="D67" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>44701</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="1">
+      <c r="B68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="6">
         <v>1.5</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="D68" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="8">
         <v>44701</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="1">
+      <c r="B69" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="10">
         <v>0.7</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>126</v>
+      <c r="D69" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44701</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="1">
+      <c r="B70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="6">
         <v>0.75</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="D70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="8">
         <v>44701</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="1">
+      <c r="B71" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="10">
         <v>0.75</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="D71" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>44703</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="B72" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="6">
         <v>1</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="D72" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="8">
         <v>44704</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="1">
+      <c r="B73" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="10">
         <v>0.25</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="D73" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>44704</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="1">
+      <c r="B74" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="6">
         <v>0.5</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="D74" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" s="7"/>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="8">
         <v>44704</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="1">
+      <c r="B75" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="10">
         <v>0.75</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D75" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>44704</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="1">
+      <c r="B76" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="6">
         <v>0.2</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="D76" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="8">
         <v>44704</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" s="1">
+      <c r="B77" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="10">
         <v>0.5</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D77" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>44704</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="1">
+      <c r="B78" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="6">
         <v>0.25</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="D78" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="8">
         <v>44704</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="1">
+      <c r="B79" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="10">
         <v>0.75</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="D79" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>44704</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" s="1">
+      <c r="B80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="6">
         <v>0.25</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="D80" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="8">
         <v>44704</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" s="1">
+      <c r="B81" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="10">
         <v>0.25</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="D81" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44704</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" s="1">
+      <c r="B82" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="6">
         <v>0.08</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="D82" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="8">
         <v>44704</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" s="1">
+      <c r="B83" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="10">
         <v>0.62</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="D83" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44704</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" s="1">
+      <c r="B84" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="6">
         <v>0.75</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="D84" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="8">
         <v>44705</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" s="1">
+      <c r="B85" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="10">
         <v>1</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>143</v>
+      <c r="D85" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>44705</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="1">
+      <c r="B86" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="6">
         <v>0.25</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="D86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="8">
         <v>44705</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" s="1">
+      <c r="B87" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="10">
         <v>0.25</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D87" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>44705</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" s="1">
+      <c r="B88" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="6">
         <v>1</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="D88" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="8">
         <v>44705</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="1">
+      <c r="B89" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="10">
         <v>0.5</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="D89" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>44705</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C90" s="1">
+      <c r="B90" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="6">
         <v>0.5</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="D90" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="8">
         <v>44705</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="1">
+      <c r="B91" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="10">
         <v>0.75</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="D91" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44705</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" s="1">
+      <c r="B92" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="6">
         <v>0.25</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="D92" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+      <c r="A93" s="8">
         <v>44709</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" s="1">
+      <c r="B93" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="10">
         <v>1</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>152</v>
+      <c r="D93" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="A94" s="4">
         <v>44711</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" s="1">
+      <c r="B94" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" s="6">
         <v>0.5</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="D94" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+      <c r="A95" s="8">
         <v>44711</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" s="1">
+      <c r="B95" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="10">
         <v>1</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="D95" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+      <c r="A96" s="4">
         <v>44711</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" s="1">
+      <c r="B96" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="6">
         <v>0.75</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="D96" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="A97" s="8">
         <v>44711</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" s="1">
+      <c r="B97" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="10">
         <v>0.5</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>152</v>
+      <c r="D97" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+      <c r="A98" s="4">
         <v>44711</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C98" s="1">
+      <c r="B98" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="6">
         <v>0.5</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>158</v>
+      <c r="D98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="A99" s="8">
         <v>44711</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99" s="1">
+      <c r="B99" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="10">
         <v>0.25</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="D99" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="A100" s="4">
         <v>44711</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" s="1">
+      <c r="B100" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" s="6">
         <v>1</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>161</v>
+      <c r="D100" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+      <c r="A101" s="8">
         <v>44712</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" s="1">
+      <c r="B101" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="10">
         <v>1.25</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="D101" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="12"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="A102" s="4">
         <v>44712</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="1">
+      <c r="B102" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="6">
         <v>0.25</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="D102" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
+      <c r="A103" s="8">
         <v>44712</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C103" s="1">
+      <c r="B103" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="10">
         <v>1.5</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>164</v>
+      <c r="D103" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>44712</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>44712</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>44712</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>44712</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
